--- a/biology/Zoologie/Ischyropsalis_dentipalpis/Ischyropsalis_dentipalpis.xlsx
+++ b/biology/Zoologie/Ischyropsalis_dentipalpis/Ischyropsalis_dentipalpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis dentipalpis est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les Alpes en Italie, en Suisse et en Autriche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les Alpes en Italie, en Suisse et en Autriche.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 5,5 mm[2].
-Les mâles mesurent de 3,52 à 5,20 mm et les femelles de 3,28 à 7,76 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 5,5 mm.
+Les mâles mesurent de 3,52 à 5,20 mm et les femelles de 3,28 à 7,76 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Canestrini en 1872.
-Ischyropsalis helvetica[3] a été placée en synonymie par Schönhofer et Martens en 2010[1].
+Ischyropsalis helvetica a été placée en synonymie par Schönhofer et Martens en 2010.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Canestrini, 1872 : « Gli Opilionidi Italiani. » Annali del Museo civico di storia naturale di Genova, vol. 2, p. 5–48 (texte intégral).</t>
         </is>
